--- a/biology/Histoire de la zoologie et de la botanique/William_Blakely/William_Blakely.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/William_Blakely/William_Blakely.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">William Faris Blakely (novembre 1875 - 1er septembre 1941) est un botaniste et collectionneur australien. De 1913 à 1940, il a travaillé à l' Herbarium de la Nouvelle-Galles du Sud (en anglais National Herbarium of New South Wales), travaillant avec Joseph Maiden sur l'eucalyptus[1]. Maiden a nommé un gommier rouge en son honneur, Eucalyptus blakelyi [2],[3]. Son travail botanique s'est concentré particulièrement sur les Acacias, les Loranthaceae et les Eucalyptus[4]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">William Faris Blakely (novembre 1875 - 1er septembre 1941) est un botaniste et collectionneur australien. De 1913 à 1940, il a travaillé à l' Herbarium de la Nouvelle-Galles du Sud (en anglais National Herbarium of New South Wales), travaillant avec Joseph Maiden sur l'eucalyptus. Maiden a nommé un gommier rouge en son honneur, Eucalyptus blakelyi ,. Son travail botanique s'est concentré particulièrement sur les Acacias, les Loranthaceae et les Eucalyptus. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Éponymie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Voici la liste[5]
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Voici la liste
 Astrotricha crassifolia Blakely - Proc. Linn. Soc. NSW, 1925, 1. 385.
 Olearia stilwellae Blakely — Proc. Linn. Soc. NSW, 1925, 1,385.
 Hibbertia dentata var. calva Blakely — Contr. New South Wales Natl. Herb. 1(3) 1951
@@ -549,7 +563,9 @@
           <t>Principales publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Blakely, WF 1922. The Loranthaceae of Australia. Part iii. Proceedings of the Linnean Society of New South Wales 47 (4)
 Blakely, WF 1965. A key to the eucalypts : with descriptions of 522 species and 150 varieties.</t>
